--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fsharp\qxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A21A9-99CF-49F3-B8CF-897762CD46EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D0E9CA-5A14-413C-954A-8009EC136621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="36165" windowHeight="21900" activeTab="1" xr2:uid="{B48BFF41-2E53-4A53-96B5-A5B510972956}"/>
+    <workbookView xWindow="38865" yWindow="1230" windowWidth="16995" windowHeight="13635" xr2:uid="{B48BFF41-2E53-4A53-96B5-A5B510972956}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
     <sheet name="rtd" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>host</t>
   </si>
@@ -142,6 +142,9 @@
   <si>
     <t>atoms</t>
   </si>
+  <si>
+    <t>random</t>
+  </si>
 </sst>
 </file>
 
@@ -215,40 +218,29 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.996bcea9abf74676baca8326927eb438">
-      <tp t="e">
-        <v>#N/A</v>
+    <main first="rtdsrv.374517a5797b49a9a3a88ac316ab5def">
+      <tp>
+        <v>-1</v>
         <stp/>
-        <stp>c62abfef-59ee-40fb-bd7f-a0a66a04ec47</stp>
+        <stp>1cf1ede8-2bd6-48d4-9cea-a5789a8c9033</stp>
+        <tr r="I37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.374517a5797b49a9a3a88ac316ab5def">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>743056ff-e5d9-4e5d-be88-b4a05f487d86</stp>
         <tr r="I36" s="1"/>
         <tr r="J36" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.996bcea9abf74676baca8326927eb438">
-      <tp t="e">
-        <v>#N/A</v>
+    <main first="rtdsrv.374517a5797b49a9a3a88ac316ab5def">
+      <tp>
+        <v>-1</v>
         <stp/>
-        <stp>8e849281-2fc3-4dd3-abda-f0edf5459ba4</stp>
-        <tr r="E4" s="2"/>
-        <tr r="G4" s="2"/>
-        <tr r="G3" s="2"/>
-        <tr r="H2" s="2"/>
-        <tr r="E2" s="2"/>
-        <tr r="E3" s="2"/>
-        <tr r="G2" s="2"/>
-        <tr r="F2" s="2"/>
-        <tr r="H4" s="2"/>
-        <tr r="F4" s="2"/>
-        <tr r="H3" s="2"/>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.996bcea9abf74676baca8326927eb438">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>68ec618a-0e3b-4243-a6ce-81dc21bcb75b</stp>
-        <tr r="I37" s="1"/>
+        <stp>f9c011a5-a825-4985-aa67-1b35dc19a70c</stp>
+        <tr r="C8" s="2"/>
       </tp>
     </main>
   </volType>
@@ -554,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16530EAE-2559-4087-9788-AEA27ECFA545}">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +572,8 @@
         <v>1</v>
       </c>
       <c r="H2" t="e" cm="1">
-        <f t="array" aca="1" ref="H2" ca="1">_xludf.execute($C$5,E2,F2)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="H2">_xludf.execute(C5,F2)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -598,8 +590,8 @@
         <v>7</v>
       </c>
       <c r="J3" t="e" cm="1">
-        <f t="array" aca="1" ref="J3" ca="1">_xludf.execute($C$5,E3,F3,F6:G7)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="J3">_xludf.execute($C$5,E3,F3,F6:G7)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -615,11 +607,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="e" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xll.open_connection(C2,C3,C4)</f>
+        <f t="array" ref="C5">_xll.open_connection(C2,C3,C4)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -630,8 +625,8 @@
         <v>9</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" aca="1" ref="J6" ca="1">_xludf.execute($C$5,E6,F6:G7)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="J6">_xludf.execute($C$5,E6,F6:G7)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -643,16 +638,23 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="e" cm="1">
+        <f t="array" ref="C9">_xludf.execute(C5,B9)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="e" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">_xludf.execute($C$5,E9)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="F9">_xludf.execute($C$5,E9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" t="e" cm="1">
-        <f t="array" aca="1" ref="J9" ca="1">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F9))</f>
-        <v>#NAME?</v>
+        <f t="array" ref="J9">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F9))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -660,12 +662,12 @@
         <v>12</v>
       </c>
       <c r="F13" t="e" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">_xludf.execute($C$5,E13)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="F13">_xludf.execute($C$5,E13)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" t="e" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F13))</f>
-        <v>#NAME?</v>
+        <f t="array" ref="J13">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F13))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
@@ -673,12 +675,12 @@
         <v>16</v>
       </c>
       <c r="F18" t="e" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">_xludf.execute($C$5,E18)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="F18">_xludf.execute($C$5,E18)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N18" t="e" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F18))</f>
-        <v>#NAME?</v>
+        <f t="array" ref="N18">_xludf.execute($C$5,"{x}",_xlfn.ANCHORARRAY(F18))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.25">
@@ -686,8 +688,8 @@
         <v>13</v>
       </c>
       <c r="F25" t="e" cm="1">
-        <f t="array" aca="1" ref="F25" ca="1">_xludf.execute($C$5,E25)</f>
-        <v>#NAME?</v>
+        <f t="array" ref="F25">_xludf.execute($C$5,E25)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
@@ -718,12 +720,11 @@
         <v>1000000</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="array" aca="1" ref="I36:J36" ca="1">_xll.startTimer(F36,G36)</f>
-        <v>H: 19:48:23.102</v>
+        <f t="array" ref="I36:J36">_xll.startTimer(F36,G36)</f>
+        <v>S: 15:07:23.545</v>
       </c>
       <c r="J36" t="str">
-        <f ca="1"/>
-        <v>G: 19:48:23.102</v>
+        <v>G: 15:07:24.547</v>
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.25">
@@ -734,12 +735,11 @@
         <v>1000000</v>
       </c>
       <c r="I37" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="I37:J37" ca="1">_xll.startTimer(F37,G37)</f>
-        <v>H: 19:48:14.603</v>
+        <f t="array" ref="I37:J37">_xll.startTimer(F37,G37)</f>
+        <v>S: 15:07:23.545</v>
       </c>
       <c r="J37" t="str">
-        <f ca="1"/>
-        <v>G: 19:48:14.603</v>
+        <v>G: 15:07:27.570</v>
       </c>
     </row>
   </sheetData>
@@ -750,17 +750,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5E8BE-CCB9-4EFA-BDFC-DBF2DD1F03C6}">
-  <dimension ref="B2:AC140"/>
+  <dimension ref="B2:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39" customWidth="1"/>
+    <col min="21" max="22" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="36.7109375" bestFit="1" customWidth="1"/>
@@ -778,18 +781,17 @@
         <v>18</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">_xludf.execute(C5,E2)</f>
+        <f t="array" ref="F2">_xludf.execute(C5,E2)</f>
         <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="str" cm="1">
-        <f t="array" aca="1" ref="I2:J3" ca="1">_xludf.execute($C$5,H2)</f>
+        <f t="array" ref="I2:J3">_xludf.execute($C$5,H2)</f>
         <v>a</v>
       </c>
       <c r="J2">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -822,11 +824,9 @@
         <v>5</v>
       </c>
       <c r="I3" t="str">
-        <f ca="1"/>
         <v>b</v>
       </c>
       <c r="J3">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="M3">
@@ -837,59 +837,48 @@
         <v>atoms[0]`c`t`name`ndata`data</v>
       </c>
       <c r="O3" t="str" cm="1">
-        <f t="array" aca="1" ref="O3:S3" ca="1">TRANSPOSE(_xludf.execute($C$5,N3))</f>
+        <f t="array" ref="O3:S3">TRANSPOSE(_xludf.execute($C$5,N3))</f>
         <v>b</v>
       </c>
       <c r="P3">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="Q3" t="str">
-        <f ca="1"/>
         <v>`boolean</v>
       </c>
       <c r="R3" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="T3" t="b" cm="1">
-        <f t="array" aca="1" ref="T3:V3" ca="1">_xludf.execute($C$5,"atoms["&amp;M3&amp;"]`ldata")</f>
+        <f t="array" ref="T3:V3">_xludf.execute($C$5,"atoms["&amp;M3&amp;"]`ldata")</f>
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="X3" t="str" cm="1">
-        <f t="array" aca="1" ref="X3:AC22" ca="1">_xludf.execute($C$5,X2)</f>
+        <f t="array" ref="X3:AC22">_xludf.execute($C$5,X2)</f>
         <v>c</v>
       </c>
       <c r="Y3" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="Z3" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="AA3" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="AB3" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="AC3" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
     </row>
@@ -909,59 +898,47 @@
         <v>atoms[1]`c`t`name`ndata`data</v>
       </c>
       <c r="O4" t="str" cm="1">
-        <f t="array" aca="1" ref="O4:S4" ca="1">TRANSPOSE(_xludf.execute($C$5,N4))</f>
+        <f t="array" ref="O4:S4">TRANSPOSE(_xludf.execute($C$5,N4))</f>
         <v>g</v>
       </c>
       <c r="P4">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="Q4" t="str">
-        <f ca="1"/>
         <v>`guid</v>
       </c>
       <c r="R4" t="str">
-        <f ca="1"/>
         <v>00000000-0000-0000-0000-000000000000</v>
       </c>
       <c r="S4" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="T4" t="str" cm="1">
-        <f t="array" aca="1" ref="T4:V4" ca="1">_xludf.execute($C$5,"atoms["&amp;M4&amp;"]`ldata")</f>
+        <f t="array" ref="T4:V4">_xludf.execute($C$5,"atoms["&amp;M4&amp;"]`ldata")</f>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="U4" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="V4" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="X4" t="str">
-        <f ca="1"/>
         <v>b</v>
       </c>
       <c r="Y4">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="Z4" t="str">
-        <f ca="1"/>
         <v>boolean</v>
       </c>
       <c r="AA4" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AB4" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AC4" t="str">
-        <f ca="1"/>
         <v>000b</v>
       </c>
     </row>
@@ -970,18 +947,17 @@
         <v>4</v>
       </c>
       <c r="C5" t="str" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xll.open_connection(C2,C3,C4)</f>
+        <f t="array" ref="C5">_xll.open_connection(C2,C3,C4)</f>
         <v>qtmp</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="str" cm="1">
-        <f t="array" aca="1" ref="I5:J6" ca="1">_xludf.execute($C$5,H5)</f>
+        <f t="array" ref="I5:J6">_xludf.execute($C$5,H5)</f>
         <v>a</v>
       </c>
       <c r="J5" t="str">
-        <f ca="1"/>
         <v>b</v>
       </c>
       <c r="M5">
@@ -993,69 +969,55 @@
         <v>atoms[2]`c`t`name`ndata`data</v>
       </c>
       <c r="O5" t="str" cm="1">
-        <f t="array" aca="1" ref="O5:S5" ca="1">TRANSPOSE(_xludf.execute($C$5,N5))</f>
+        <f t="array" ref="O5:S5">TRANSPOSE(_xludf.execute($C$5,N5))</f>
         <v>x</v>
       </c>
       <c r="P5">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="Q5" t="str">
-        <f ca="1"/>
         <v>`byte</v>
       </c>
       <c r="R5">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="T5" cm="1">
-        <f t="array" aca="1" ref="T5:V5" ca="1">_xludf.execute($C$5,"atoms["&amp;M5&amp;"]`ldata")</f>
+        <f t="array" ref="T5:V5">_xludf.execute($C$5,"atoms["&amp;M5&amp;"]`ldata")</f>
         <v>90</v>
       </c>
       <c r="U5">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="V5">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="X5" t="str">
-        <f ca="1"/>
         <v>g</v>
       </c>
       <c r="Y5">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="Z5" t="str">
-        <f ca="1"/>
         <v>guid</v>
       </c>
       <c r="AA5" t="str">
-        <f ca="1"/>
         <v>00000000-0000-0000-0000-000000000000</v>
       </c>
       <c r="AB5" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="AC5" t="str">
-        <f ca="1"/>
         <v>(5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288)</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="I6">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="M6">
@@ -1067,59 +1029,47 @@
         <v>atoms[3]`c`t`name`ndata`data</v>
       </c>
       <c r="O6" t="str" cm="1">
-        <f t="array" aca="1" ref="O6:S6" ca="1">TRANSPOSE(_xludf.execute($C$5,N6))</f>
+        <f t="array" ref="O6:S6">TRANSPOSE(_xludf.execute($C$5,N6))</f>
         <v>h</v>
       </c>
       <c r="P6">
-        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="Q6" t="str">
-        <f ca="1"/>
         <v>`short</v>
       </c>
       <c r="R6">
-        <f ca="1"/>
         <v>-32768</v>
       </c>
       <c r="S6">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T6" cm="1">
-        <f t="array" aca="1" ref="T6:V6" ca="1">_xludf.execute($C$5,"atoms["&amp;M6&amp;"]`ldata")</f>
+        <f t="array" ref="T6:V6">_xludf.execute($C$5,"atoms["&amp;M6&amp;"]`ldata")</f>
         <v>1</v>
       </c>
       <c r="U6">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="X6" t="str">
-        <f ca="1"/>
         <v>x</v>
       </c>
       <c r="Y6">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="Z6" t="str">
-        <f ca="1"/>
         <v>byte</v>
       </c>
       <c r="AA6">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="AC6" t="str">
-        <f ca="1"/>
         <v>90 90 90</v>
       </c>
     </row>
@@ -1133,59 +1083,47 @@
         <v>atoms[4]`c`t`name`ndata`data</v>
       </c>
       <c r="O7" t="str" cm="1">
-        <f t="array" aca="1" ref="O7:S7" ca="1">TRANSPOSE(_xludf.execute($C$5,N7))</f>
+        <f t="array" ref="O7:S7">TRANSPOSE(_xludf.execute($C$5,N7))</f>
         <v>i</v>
       </c>
       <c r="P7">
-        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="Q7" t="str">
-        <f ca="1"/>
         <v>`int</v>
       </c>
       <c r="R7">
-        <f ca="1"/>
         <v>-2147483648</v>
       </c>
       <c r="S7">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T7" cm="1">
-        <f t="array" aca="1" ref="T7:V7" ca="1">_xludf.execute($C$5,"atoms["&amp;M7&amp;"]`ldata")</f>
+        <f t="array" ref="T7:V7">_xludf.execute($C$5,"atoms["&amp;M7&amp;"]`ldata")</f>
         <v>1</v>
       </c>
       <c r="U7">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="V7">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="X7" t="str">
-        <f ca="1"/>
         <v>h</v>
       </c>
       <c r="Y7">
-        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="Z7" t="str">
-        <f ca="1"/>
         <v>short</v>
       </c>
       <c r="AA7">
-        <f ca="1"/>
         <v>-32768</v>
       </c>
       <c r="AB7">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AC7" t="str">
-        <f ca="1"/>
         <v>1 1 1h</v>
       </c>
     </row>
@@ -1206,69 +1144,56 @@
         <v>atoms[5]`c`t`name`ndata`data</v>
       </c>
       <c r="O8" t="str" cm="1">
-        <f t="array" aca="1" ref="O8:S8" ca="1">TRANSPOSE(_xludf.execute($C$5,N8))</f>
+        <f t="array" ref="O8:S8">TRANSPOSE(_xludf.execute($C$5,N8))</f>
         <v>j</v>
       </c>
       <c r="P8">
-        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="Q8" t="str">
-        <f ca="1"/>
         <v>`long</v>
       </c>
       <c r="R8">
-        <f ca="1"/>
         <v>-9.2233720368547758E+18</v>
       </c>
       <c r="S8">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T8" cm="1">
-        <f t="array" aca="1" ref="T8:V8" ca="1">_xludf.execute($C$5,"atoms["&amp;M8&amp;"]`ldata")</f>
+        <f t="array" ref="T8:V8">_xludf.execute($C$5,"atoms["&amp;M8&amp;"]`ldata")</f>
         <v>1</v>
       </c>
       <c r="U8">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="X8" t="str">
-        <f ca="1"/>
         <v>i</v>
       </c>
       <c r="Y8">
-        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="Z8" t="str">
-        <f ca="1"/>
         <v>int</v>
       </c>
       <c r="AA8">
-        <f ca="1"/>
         <v>-2147483648</v>
       </c>
       <c r="AB8">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AC8" t="str">
-        <f ca="1"/>
         <v>1 1 1i</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H9" t="str" cm="1">
-        <f t="array" aca="1" ref="H9:I14" ca="1">_xludf.execute($C$5,H8)</f>
+        <f t="array" ref="H9:I14">_xludf.execute($C$5,H8)</f>
         <v>c</v>
       </c>
       <c r="I9" t="str">
-        <f ca="1"/>
         <v>b</v>
       </c>
       <c r="M9">
@@ -1280,69 +1205,55 @@
         <v>atoms[6]`c`t`name`ndata`data</v>
       </c>
       <c r="O9" t="str" cm="1">
-        <f t="array" aca="1" ref="O9:S9" ca="1">TRANSPOSE(_xludf.execute($C$5,N9))</f>
+        <f t="array" ref="O9:S9">TRANSPOSE(_xludf.execute($C$5,N9))</f>
         <v>e</v>
       </c>
       <c r="P9">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="Q9" t="str">
-        <f ca="1"/>
         <v>`real</v>
       </c>
       <c r="R9" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="S9">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T9" cm="1">
-        <f t="array" aca="1" ref="T9:V9" ca="1">_xludf.execute($C$5,"atoms["&amp;M9&amp;"]`ldata")</f>
+        <f t="array" ref="T9:V9">_xludf.execute($C$5,"atoms["&amp;M9&amp;"]`ldata")</f>
         <v>1</v>
       </c>
       <c r="U9">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="V9">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="X9" t="str">
-        <f ca="1"/>
         <v>j</v>
       </c>
       <c r="Y9">
-        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="Z9" t="str">
-        <f ca="1"/>
         <v>long</v>
       </c>
       <c r="AA9">
-        <f ca="1"/>
         <v>-9.2233720368547758E+18</v>
       </c>
       <c r="AB9">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AC9" t="str">
-        <f ca="1"/>
         <v>1 1 1j</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H10" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I10">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="M10">
@@ -1354,69 +1265,55 @@
         <v>atoms[7]`c`t`name`ndata`data</v>
       </c>
       <c r="O10" t="str" cm="1">
-        <f t="array" aca="1" ref="O10:S10" ca="1">TRANSPOSE(_xludf.execute($C$5,N10))</f>
+        <f t="array" ref="O10:S10">TRANSPOSE(_xludf.execute($C$5,N10))</f>
         <v>f</v>
       </c>
       <c r="P10">
-        <f ca="1"/>
         <v>9</v>
       </c>
       <c r="Q10" t="str">
-        <f ca="1"/>
         <v>`float</v>
       </c>
       <c r="R10" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="S10">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T10" cm="1">
-        <f t="array" aca="1" ref="T10:V10" ca="1">_xludf.execute($C$5,"atoms["&amp;M10&amp;"]`ldata")</f>
+        <f t="array" ref="T10:V10">_xludf.execute($C$5,"atoms["&amp;M10&amp;"]`ldata")</f>
         <v>1</v>
       </c>
       <c r="U10">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="V10">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="X10" t="str">
-        <f ca="1"/>
         <v>e</v>
       </c>
       <c r="Y10">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="Z10" t="str">
-        <f ca="1"/>
         <v>real</v>
       </c>
       <c r="AA10" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="AB10">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AC10" t="str">
-        <f ca="1"/>
         <v>1 1 1e</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I11" t="str">
-        <f ca="1"/>
         <v>`boolean</v>
       </c>
       <c r="M11">
@@ -1428,69 +1325,55 @@
         <v>atoms[8]`c`t`name`ndata`data</v>
       </c>
       <c r="O11" t="str" cm="1">
-        <f t="array" aca="1" ref="O11:S11" ca="1">TRANSPOSE(_xludf.execute($C$5,N11))</f>
+        <f t="array" ref="O11:S11">TRANSPOSE(_xludf.execute($C$5,N11))</f>
         <v>c</v>
       </c>
       <c r="P11">
-        <f ca="1"/>
         <v>10</v>
       </c>
       <c r="Q11" t="str">
-        <f ca="1"/>
         <v>`char</v>
       </c>
       <c r="R11" t="str">
-        <f ca="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S11" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="T11" t="str" cm="1">
-        <f t="array" aca="1" ref="T11:V11" ca="1">_xludf.execute($C$5,"atoms["&amp;M11&amp;"]`ldata")</f>
+        <f t="array" ref="T11:V11">_xludf.execute($C$5,"atoms["&amp;M11&amp;"]`ldata")</f>
         <v>m</v>
       </c>
       <c r="U11" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="V11" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="X11" t="str">
-        <f ca="1"/>
         <v>f</v>
       </c>
       <c r="Y11">
-        <f ca="1"/>
         <v>9</v>
       </c>
       <c r="Z11" t="str">
-        <f ca="1"/>
         <v>float</v>
       </c>
       <c r="AA11" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="AB11">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AC11" t="str">
-        <f ca="1"/>
         <v>1 1 1f</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I12" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="M12">
@@ -1502,69 +1385,55 @@
         <v>atoms[9]`c`t`name`ndata`data</v>
       </c>
       <c r="O12" t="str" cm="1">
-        <f t="array" aca="1" ref="O12:S12" ca="1">TRANSPOSE(_xludf.execute($C$5,N12))</f>
+        <f t="array" ref="O12:S12">TRANSPOSE(_xludf.execute($C$5,N12))</f>
         <v>s</v>
       </c>
       <c r="P12">
-        <f ca="1"/>
         <v>11</v>
       </c>
       <c r="Q12" t="str">
-        <f ca="1"/>
         <v>`symbol</v>
       </c>
       <c r="R12" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="S12" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="T12" t="str" cm="1">
-        <f t="array" aca="1" ref="T12:V12" ca="1">_xludf.execute($C$5,"atoms["&amp;M12&amp;"]`ldata")</f>
+        <f t="array" ref="T12:V12">_xludf.execute($C$5,"atoms["&amp;M12&amp;"]`ldata")</f>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f ca="1"/>
         <v/>
       </c>
       <c r="X12" t="str">
-        <f ca="1"/>
         <v>c</v>
       </c>
       <c r="Y12">
-        <f ca="1"/>
         <v>10</v>
       </c>
       <c r="Z12" t="str">
-        <f ca="1"/>
         <v>char</v>
       </c>
       <c r="AA12" t="str">
-        <f ca="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB12" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="AC12" t="str">
-        <f ca="1"/>
         <v>"mmm"</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H13" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I13" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="M13">
@@ -1576,69 +1445,55 @@
         <v>atoms[10]`c`t`name`ndata`data</v>
       </c>
       <c r="O13" t="str" cm="1">
-        <f t="array" aca="1" ref="O13:S13" ca="1">TRANSPOSE(_xludf.execute($C$5,N13))</f>
+        <f t="array" ref="O13:S13">TRANSPOSE(_xludf.execute($C$5,N13))</f>
         <v>p</v>
       </c>
       <c r="P13">
-        <f ca="1"/>
         <v>12</v>
       </c>
       <c r="Q13" t="str">
-        <f ca="1"/>
         <v>`timestamp</v>
       </c>
       <c r="R13">
-        <f ca="1"/>
         <v>-70226.008832708336</v>
       </c>
-      <c r="S13">
-        <f ca="1"/>
+      <c r="S13" s="4">
         <v>43931.713476180557</v>
       </c>
-      <c r="T13" cm="1">
-        <f t="array" aca="1" ref="T13:V13" ca="1">_xludf.execute($C$5,"atoms["&amp;M13&amp;"]`ldata")</f>
+      <c r="T13" s="4" cm="1">
+        <f t="array" ref="T13:V13">_xludf.execute($C$5,"atoms["&amp;M13&amp;"]`ldata")</f>
         <v>43931.713476180557</v>
       </c>
-      <c r="U13">
-        <f ca="1"/>
+      <c r="U13" s="4">
         <v>43931.713476180557</v>
       </c>
-      <c r="V13">
-        <f ca="1"/>
+      <c r="V13" s="4">
         <v>43931.713476180557</v>
       </c>
       <c r="X13" t="str">
-        <f ca="1"/>
         <v>s</v>
       </c>
       <c r="Y13">
-        <f ca="1"/>
         <v>11</v>
       </c>
       <c r="Z13" t="str">
-        <f ca="1"/>
         <v>symbol</v>
       </c>
       <c r="AA13" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="AB13" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="AC13" t="str">
-        <f ca="1"/>
         <v>```</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="H14" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I14" t="str">
-        <f ca="1"/>
         <v>000b</v>
       </c>
       <c r="M14">
@@ -1650,59 +1505,47 @@
         <v>atoms[11]`c`t`name`ndata`data</v>
       </c>
       <c r="O14" t="str" cm="1">
-        <f t="array" aca="1" ref="O14:S14" ca="1">TRANSPOSE(_xludf.execute($C$5,N14))</f>
+        <f t="array" ref="O14:S14">TRANSPOSE(_xludf.execute($C$5,N14))</f>
         <v>m</v>
       </c>
       <c r="P14">
-        <f ca="1"/>
         <v>13</v>
       </c>
       <c r="Q14" t="str">
-        <f ca="1"/>
         <v>`month</v>
       </c>
       <c r="R14">
-        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="S14">
-        <f ca="1"/>
+      <c r="S14" s="4">
         <v>43922</v>
       </c>
-      <c r="T14" cm="1">
-        <f t="array" aca="1" ref="T14:V14" ca="1">_xludf.execute($C$5,"atoms["&amp;M14&amp;"]`ldata")</f>
+      <c r="T14" s="4" cm="1">
+        <f t="array" ref="T14:V14">_xludf.execute($C$5,"atoms["&amp;M14&amp;"]`ldata")</f>
         <v>43922</v>
       </c>
-      <c r="U14">
-        <f ca="1"/>
+      <c r="U14" s="4">
         <v>43922</v>
       </c>
-      <c r="V14">
-        <f ca="1"/>
+      <c r="V14" s="4">
         <v>43922</v>
       </c>
       <c r="X14" t="str">
-        <f ca="1"/>
         <v>p</v>
       </c>
       <c r="Y14">
-        <f ca="1"/>
         <v>12</v>
       </c>
       <c r="Z14" t="str">
-        <f ca="1"/>
         <v>timestamp</v>
       </c>
       <c r="AA14">
-        <f ca="1"/>
         <v>-70226.008832708336</v>
       </c>
       <c r="AB14" s="4">
-        <f ca="1"/>
         <v>43931.713476180557</v>
       </c>
       <c r="AC14" t="str">
-        <f ca="1"/>
         <v>2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00</v>
       </c>
     </row>
@@ -1716,59 +1559,47 @@
         <v>atoms[12]`c`t`name`ndata`data</v>
       </c>
       <c r="O15" t="str" cm="1">
-        <f t="array" aca="1" ref="O15:S15" ca="1">TRANSPOSE(_xludf.execute($C$5,N15))</f>
+        <f t="array" ref="O15:S15">TRANSPOSE(_xludf.execute($C$5,N15))</f>
         <v>d</v>
       </c>
       <c r="P15">
-        <f ca="1"/>
         <v>14</v>
       </c>
       <c r="Q15" t="str">
-        <f ca="1"/>
         <v>`date</v>
       </c>
       <c r="R15">
-        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="S15">
-        <f ca="1"/>
+      <c r="S15" s="4">
         <v>43931</v>
       </c>
-      <c r="T15" cm="1">
-        <f t="array" aca="1" ref="T15:V15" ca="1">_xludf.execute($C$5,"atoms["&amp;M15&amp;"]`ldata")</f>
+      <c r="T15" s="4" cm="1">
+        <f t="array" ref="T15:V15">_xludf.execute($C$5,"atoms["&amp;M15&amp;"]`ldata")</f>
         <v>43931</v>
       </c>
-      <c r="U15">
-        <f ca="1"/>
+      <c r="U15" s="4">
         <v>43931</v>
       </c>
-      <c r="V15">
-        <f ca="1"/>
+      <c r="V15" s="4">
         <v>43931</v>
       </c>
       <c r="X15" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="Y15">
-        <f ca="1"/>
         <v>13</v>
       </c>
       <c r="Z15" t="str">
-        <f ca="1"/>
         <v>month</v>
       </c>
       <c r="AA15">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="4">
-        <f ca="1"/>
         <v>43922</v>
       </c>
       <c r="AC15" t="str">
-        <f ca="1"/>
         <v>2020.04 2020.04 2020.04m</v>
       </c>
     </row>
@@ -1789,69 +1620,56 @@
         <v>atoms[13]`c`t`name`ndata`data</v>
       </c>
       <c r="O16" t="str" cm="1">
-        <f t="array" aca="1" ref="O16:S16" ca="1">TRANSPOSE(_xludf.execute($C$5,N16))</f>
+        <f t="array" ref="O16:S16">TRANSPOSE(_xludf.execute($C$5,N16))</f>
         <v>z</v>
       </c>
       <c r="P16">
-        <f ca="1"/>
         <v>15</v>
       </c>
       <c r="Q16" t="str">
-        <f ca="1"/>
         <v>`datetime</v>
       </c>
       <c r="R16">
-        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="S16">
-        <f ca="1"/>
+      <c r="S16" s="4">
         <v>43931.713476192126</v>
       </c>
-      <c r="T16" cm="1">
-        <f t="array" aca="1" ref="T16:V16" ca="1">_xludf.execute($C$5,"atoms["&amp;M16&amp;"]`ldata")</f>
+      <c r="T16" s="4" cm="1">
+        <f t="array" ref="T16:V16">_xludf.execute($C$5,"atoms["&amp;M16&amp;"]`ldata")</f>
         <v>43931.713476192126</v>
       </c>
-      <c r="U16">
-        <f ca="1"/>
+      <c r="U16" s="4">
         <v>43931.713476192126</v>
       </c>
-      <c r="V16">
-        <f ca="1"/>
+      <c r="V16" s="4">
         <v>43931.713476192126</v>
       </c>
       <c r="X16" t="str">
-        <f ca="1"/>
         <v>d</v>
       </c>
       <c r="Y16">
-        <f ca="1"/>
         <v>14</v>
       </c>
       <c r="Z16" t="str">
-        <f ca="1"/>
         <v>date</v>
       </c>
       <c r="AA16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <f ca="1"/>
         <v>43931</v>
       </c>
       <c r="AC16" t="str">
-        <f ca="1"/>
         <v>2020.04.10 2020.04.10 2020.04.10</v>
       </c>
     </row>
     <row r="17" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H17" t="str" cm="1">
-        <f t="array" aca="1" ref="H17:I22" ca="1">_xludf.execute($C$5,H16)</f>
+        <f t="array" ref="H17:I22">_xludf.execute($C$5,H16)</f>
         <v>c</v>
       </c>
       <c r="I17" t="str">
-        <f ca="1"/>
         <v>g</v>
       </c>
       <c r="M17">
@@ -1863,69 +1681,55 @@
         <v>atoms[14]`c`t`name`ndata`data</v>
       </c>
       <c r="O17" t="str" cm="1">
-        <f t="array" aca="1" ref="O17:S17" ca="1">TRANSPOSE(_xludf.execute($C$5,N17))</f>
+        <f t="array" ref="O17:S17">TRANSPOSE(_xludf.execute($C$5,N17))</f>
         <v>n</v>
       </c>
       <c r="P17">
-        <f ca="1"/>
         <v>16</v>
       </c>
       <c r="Q17" t="str">
-        <f ca="1"/>
         <v>`timespan</v>
       </c>
       <c r="R17">
-        <f ca="1"/>
         <v>-106751.99116730064</v>
       </c>
-      <c r="S17">
-        <f ca="1"/>
+      <c r="S17" s="4">
         <v>0.71347618685185177</v>
       </c>
-      <c r="T17">
-        <f t="array" aca="1" ref="T17:V17" ca="1">_xludf.execute($C$5,"atoms["&amp;M17&amp;"]`ldata")</f>
+      <c r="T17" s="4">
+        <f t="array" ref="T17:V17">_xludf.execute($C$5,"atoms["&amp;M17&amp;"]`ldata")</f>
         <v>0.71347618685185177</v>
       </c>
-      <c r="U17">
-        <f ca="1"/>
+      <c r="U17" s="4">
         <v>0.71347618685185177</v>
       </c>
-      <c r="V17">
-        <f ca="1"/>
+      <c r="V17" s="4">
         <v>0.71347618685185177</v>
       </c>
       <c r="X17" t="str">
-        <f ca="1"/>
         <v>z</v>
       </c>
       <c r="Y17">
-        <f ca="1"/>
         <v>15</v>
       </c>
       <c r="Z17" t="str">
-        <f ca="1"/>
         <v>datetime</v>
       </c>
       <c r="AA17">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <f ca="1"/>
         <v>43931.713476192126</v>
       </c>
       <c r="AC17" t="str">
-        <f ca="1"/>
         <v>2020.04.10D17:07:24.343 2020.04.10D17:07:24.343 2020.04.10D17:07:24.343</v>
       </c>
     </row>
     <row r="18" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H18" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I18">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="M18">
@@ -1937,69 +1741,55 @@
         <v>atoms[15]`c`t`name`ndata`data</v>
       </c>
       <c r="O18" t="str" cm="1">
-        <f t="array" aca="1" ref="O18:S18" ca="1">TRANSPOSE(_xludf.execute($C$5,N18))</f>
+        <f t="array" ref="O18:S18">TRANSPOSE(_xludf.execute($C$5,N18))</f>
         <v>u</v>
       </c>
       <c r="P18">
-        <f ca="1"/>
         <v>17</v>
       </c>
       <c r="Q18" t="str">
-        <f ca="1"/>
         <v>`minute</v>
       </c>
       <c r="R18">
-        <f ca="1"/>
         <v>-1491308.0888888887</v>
       </c>
-      <c r="S18">
-        <f ca="1"/>
+      <c r="S18" s="4">
         <v>0.71319444444444446</v>
       </c>
-      <c r="T18">
-        <f t="array" aca="1" ref="T18:V18" ca="1">_xludf.execute($C$5,"atoms["&amp;M18&amp;"]`ldata")</f>
+      <c r="T18" s="4">
+        <f t="array" ref="T18:V18">_xludf.execute($C$5,"atoms["&amp;M18&amp;"]`ldata")</f>
         <v>0.71319444444444446</v>
       </c>
-      <c r="U18">
-        <f ca="1"/>
+      <c r="U18" s="4">
         <v>0.71319444444444446</v>
       </c>
-      <c r="V18">
-        <f ca="1"/>
+      <c r="V18" s="4">
         <v>0.71319444444444446</v>
       </c>
       <c r="X18" t="str">
-        <f ca="1"/>
         <v>n</v>
       </c>
       <c r="Y18">
-        <f ca="1"/>
         <v>16</v>
       </c>
       <c r="Z18" t="str">
-        <f ca="1"/>
         <v>timespan</v>
       </c>
       <c r="AA18">
-        <f ca="1"/>
         <v>-106751.99116730064</v>
       </c>
       <c r="AB18" s="4">
-        <f ca="1"/>
         <v>0.71347618685185177</v>
       </c>
       <c r="AC18" t="str">
-        <f ca="1"/>
         <v>17:07:24.3425440 17:07:24.3425440 17:07:24.3425440</v>
       </c>
     </row>
     <row r="19" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H19" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I19" t="str">
-        <f ca="1"/>
         <v>`guid</v>
       </c>
       <c r="M19">
@@ -2011,69 +1801,55 @@
         <v>atoms[16]`c`t`name`ndata`data</v>
       </c>
       <c r="O19" t="str" cm="1">
-        <f t="array" aca="1" ref="O19:S19" ca="1">TRANSPOSE(_xludf.execute($C$5,N19))</f>
+        <f t="array" ref="O19:S19">TRANSPOSE(_xludf.execute($C$5,N19))</f>
         <v>v</v>
       </c>
       <c r="P19">
-        <f ca="1"/>
         <v>18</v>
       </c>
       <c r="Q19" t="str">
-        <f ca="1"/>
         <v>`second</v>
       </c>
       <c r="R19">
-        <f ca="1"/>
         <v>-0.1348148148148148</v>
       </c>
-      <c r="S19">
-        <f ca="1"/>
+      <c r="S19" s="4">
         <v>0.71347222222222217</v>
       </c>
-      <c r="T19" cm="1">
-        <f t="array" aca="1" ref="T19:V19" ca="1">_xludf.execute($C$5,"atoms["&amp;M19&amp;"]`ldata")</f>
+      <c r="T19" s="4" cm="1">
+        <f t="array" ref="T19:V19">_xludf.execute($C$5,"atoms["&amp;M19&amp;"]`ldata")</f>
         <v>1.7301388888888889</v>
       </c>
-      <c r="U19">
-        <f ca="1"/>
+      <c r="U19" s="4">
         <v>1.7301388888888889</v>
       </c>
-      <c r="V19">
-        <f ca="1"/>
+      <c r="V19" s="4">
         <v>1.7301388888888889</v>
       </c>
       <c r="X19" t="str">
-        <f ca="1"/>
         <v>u</v>
       </c>
       <c r="Y19">
-        <f ca="1"/>
         <v>17</v>
       </c>
       <c r="Z19" t="str">
-        <f ca="1"/>
         <v>minute</v>
       </c>
       <c r="AA19">
-        <f ca="1"/>
         <v>-1491308.0888888887</v>
       </c>
       <c r="AB19" s="4">
-        <f ca="1"/>
         <v>0.71319444444444446</v>
       </c>
       <c r="AC19" t="str">
-        <f ca="1"/>
         <v>17:07 17:07 17:07</v>
       </c>
     </row>
     <row r="20" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H20" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I20" t="str">
-        <f ca="1"/>
         <v>00000000-0000-0000-0000-000000000000</v>
       </c>
       <c r="M20">
@@ -2085,69 +1861,55 @@
         <v>atoms[17]`c`t`name`ndata`data</v>
       </c>
       <c r="O20" t="str" cm="1">
-        <f t="array" aca="1" ref="O20:S20" ca="1">TRANSPOSE(_xludf.execute($C$5,N20))</f>
+        <f t="array" ref="O20:S20">TRANSPOSE(_xludf.execute($C$5,N20))</f>
         <v>t</v>
       </c>
       <c r="P20">
-        <f ca="1"/>
         <v>19</v>
       </c>
       <c r="Q20" t="str">
-        <f ca="1"/>
         <v>`time</v>
       </c>
       <c r="R20">
-        <f ca="1"/>
         <v>-24.855134814814814</v>
       </c>
-      <c r="S20">
-        <f ca="1"/>
+      <c r="S20" s="4">
         <v>0.71347618055555551</v>
       </c>
-      <c r="T20" cm="1">
-        <f t="array" aca="1" ref="T20:V20" ca="1">_xludf.execute($C$5,"atoms["&amp;M20&amp;"]`ldata")</f>
+      <c r="T20" s="4" cm="1">
+        <f t="array" ref="T20:V20">_xludf.execute($C$5,"atoms["&amp;M20&amp;"]`ldata")</f>
         <v>0.71347618055555551</v>
       </c>
-      <c r="U20">
-        <f ca="1"/>
+      <c r="U20" s="4">
         <v>0.71347618055555551</v>
       </c>
-      <c r="V20">
-        <f ca="1"/>
+      <c r="V20" s="4">
         <v>0.71347618055555551</v>
       </c>
       <c r="X20" t="str">
-        <f ca="1"/>
         <v>v</v>
       </c>
       <c r="Y20">
-        <f ca="1"/>
         <v>18</v>
       </c>
       <c r="Z20" t="str">
-        <f ca="1"/>
         <v>second</v>
       </c>
       <c r="AA20">
-        <f ca="1"/>
         <v>-0.1348148148148148</v>
       </c>
       <c r="AB20" s="4">
-        <f ca="1"/>
         <v>0.71347222222222217</v>
       </c>
       <c r="AC20" t="str">
-        <f ca="1"/>
         <v>17:31:24 17:31:24 17:31:24</v>
       </c>
     </row>
     <row r="21" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H21" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I21" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="M21">
@@ -2159,96 +1921,76 @@
         <v>atoms[18]`c`t`name`ndata`data</v>
       </c>
       <c r="O21" t="str" cm="1">
-        <f t="array" aca="1" ref="O21:S21" ca="1">TRANSPOSE(_xludf.execute($C$5,N21))</f>
+        <f t="array" ref="O21:S21">TRANSPOSE(_xludf.execute($C$5,N21))</f>
         <v>s</v>
       </c>
       <c r="P21">
-        <f ca="1"/>
         <v>20</v>
       </c>
       <c r="Q21" t="str">
-        <f ca="1"/>
         <v>`symbol</v>
       </c>
       <c r="R21" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="S21" t="str">
-        <f ca="1"/>
         <v>`abc</v>
       </c>
       <c r="T21" t="str" cm="1">
-        <f t="array" aca="1" ref="T21:V21" ca="1">_xludf.execute($C$5,"atoms["&amp;M21&amp;"]`ldata")</f>
+        <f t="array" ref="T21:V21">_xludf.execute($C$5,"atoms["&amp;M21&amp;"]`ldata")</f>
         <v>abc</v>
       </c>
       <c r="U21" t="str">
-        <f ca="1"/>
         <v>abc</v>
       </c>
       <c r="V21" t="str">
-        <f ca="1"/>
         <v>abc</v>
       </c>
       <c r="X21" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="Y21">
-        <f ca="1"/>
         <v>19</v>
       </c>
       <c r="Z21" t="str">
-        <f ca="1"/>
         <v>time</v>
       </c>
       <c r="AA21">
-        <f ca="1"/>
         <v>-24.855134814814814</v>
       </c>
       <c r="AB21" s="4">
-        <f ca="1"/>
         <v>0.71347618055555551</v>
       </c>
       <c r="AC21" t="str">
-        <f ca="1"/>
         <v>17:07:24.342 17:07:24.342 17:07:24.342</v>
       </c>
     </row>
     <row r="22" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I22" t="str">
-        <f ca="1"/>
         <v>(5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288)</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="str">
-        <f ca="1"/>
         <v>s</v>
       </c>
       <c r="Y22">
-        <f ca="1"/>
         <v>20</v>
       </c>
       <c r="Z22" t="str">
-        <f ca="1"/>
         <v>symbol</v>
       </c>
       <c r="AA22" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="AB22" t="str">
-        <f ca="1"/>
         <v>`abc</v>
       </c>
       <c r="AC22" t="str">
-        <f ca="1"/>
         <v>`abc`abc`abc</v>
       </c>
     </row>
@@ -2266,257 +2008,199 @@
         <v>2</v>
       </c>
       <c r="O24" t="str" cm="1">
-        <f t="array" aca="1" ref="O24:T43" ca="1">_xludf.execute($C$5,O23)</f>
+        <f t="array" ref="O24:T43">_xludf.execute($C$5,O23)</f>
         <v>c</v>
       </c>
       <c r="P24" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="Q24" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="R24" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="S24" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="T24" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
     </row>
     <row r="25" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H25" t="str" cm="1">
-        <f t="array" aca="1" ref="H25:I30" ca="1">_xludf.execute($C$5,H24)</f>
+        <f t="array" ref="H25:I30">_xludf.execute($C$5,H24)</f>
         <v>c</v>
       </c>
       <c r="I25" t="str">
-        <f ca="1"/>
         <v>x</v>
       </c>
       <c r="O25" t="str">
-        <f ca="1"/>
         <v>b</v>
       </c>
       <c r="P25">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="Q25" t="str">
-        <f ca="1"/>
         <v>boolean</v>
       </c>
       <c r="R25" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S25" t="b">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="T25" t="str">
-        <f ca="1"/>
         <v>000b</v>
       </c>
     </row>
     <row r="26" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H26" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I26">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="O26" t="str">
-        <f ca="1"/>
         <v>g</v>
       </c>
       <c r="P26">
-        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="Q26" t="str">
-        <f ca="1"/>
         <v>guid</v>
       </c>
       <c r="R26" t="str">
-        <f ca="1"/>
         <v>00000000-0000-0000-0000-000000000000</v>
       </c>
       <c r="S26" t="str">
-        <f ca="1"/>
         <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
       </c>
       <c r="T26" t="str">
-        <f ca="1"/>
         <v>(5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288)</v>
       </c>
     </row>
     <row r="27" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H27" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I27" t="str">
-        <f ca="1"/>
         <v>`byte</v>
       </c>
       <c r="O27" t="str">
-        <f ca="1"/>
         <v>x</v>
       </c>
       <c r="P27">
-        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="Q27" t="str">
-        <f ca="1"/>
         <v>byte</v>
       </c>
       <c r="R27">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="T27" t="str">
-        <f ca="1"/>
         <v>90 90 90</v>
       </c>
     </row>
     <row r="28" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H28" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I28">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="O28" t="str">
-        <f ca="1"/>
         <v>h</v>
       </c>
       <c r="P28">
-        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="Q28" t="str">
-        <f ca="1"/>
         <v>short</v>
       </c>
       <c r="R28">
-        <f ca="1"/>
         <v>-32768</v>
       </c>
       <c r="S28">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T28" t="str">
-        <f ca="1"/>
         <v>1 1 1h</v>
       </c>
     </row>
     <row r="29" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H29" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I29">
-        <f ca="1"/>
         <v>90</v>
       </c>
       <c r="O29" t="str">
-        <f ca="1"/>
         <v>i</v>
       </c>
       <c r="P29">
-        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="Q29" t="str">
-        <f ca="1"/>
         <v>int</v>
       </c>
       <c r="R29">
-        <f ca="1"/>
         <v>-2147483648</v>
       </c>
       <c r="S29">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T29" t="str">
-        <f ca="1"/>
         <v>1 1 1i</v>
       </c>
     </row>
     <row r="30" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H30" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I30" t="str">
-        <f ca="1"/>
         <v>90 90 90</v>
       </c>
       <c r="O30" t="str">
-        <f ca="1"/>
         <v>j</v>
       </c>
       <c r="P30">
-        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="Q30" t="str">
-        <f ca="1"/>
         <v>long</v>
       </c>
       <c r="R30">
-        <f ca="1"/>
         <v>-9.2233720368547758E+18</v>
       </c>
       <c r="S30">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T30" t="str">
-        <f ca="1"/>
         <v>1 1 1j</v>
       </c>
     </row>
     <row r="31" spans="8:29" x14ac:dyDescent="0.25">
       <c r="O31" t="str">
-        <f ca="1"/>
         <v>e</v>
       </c>
       <c r="P31">
-        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="Q31" t="str">
-        <f ca="1"/>
         <v>real</v>
       </c>
       <c r="R31" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="S31">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T31" t="str">
-        <f ca="1"/>
         <v>1 1 1e</v>
       </c>
     </row>
@@ -2529,257 +2213,198 @@
         <v>3</v>
       </c>
       <c r="O32" t="str">
-        <f ca="1"/>
         <v>f</v>
       </c>
       <c r="P32">
-        <f ca="1"/>
         <v>9</v>
       </c>
       <c r="Q32" t="str">
-        <f ca="1"/>
         <v>float</v>
       </c>
       <c r="R32" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
       <c r="S32">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="T32" t="str">
-        <f ca="1"/>
         <v>1 1 1f</v>
       </c>
     </row>
     <row r="33" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H33" t="str" cm="1">
-        <f t="array" aca="1" ref="H33:I38" ca="1">_xludf.execute($C$5,H32)</f>
+        <f t="array" ref="H33:I38">_xludf.execute($C$5,H32)</f>
         <v>c</v>
       </c>
       <c r="I33" t="str">
-        <f ca="1"/>
         <v>h</v>
       </c>
       <c r="O33" t="str">
-        <f ca="1"/>
         <v>c</v>
       </c>
       <c r="P33">
-        <f ca="1"/>
         <v>10</v>
       </c>
       <c r="Q33" t="str">
-        <f ca="1"/>
         <v>char</v>
       </c>
       <c r="R33" t="str">
-        <f ca="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S33" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="T33" t="str">
-        <f ca="1"/>
         <v>"mmm"</v>
       </c>
     </row>
     <row r="34" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H34" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I34">
-        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="O34" t="str">
-        <f ca="1"/>
         <v>s</v>
       </c>
       <c r="P34">
-        <f ca="1"/>
         <v>11</v>
       </c>
       <c r="Q34" t="str">
-        <f ca="1"/>
         <v>symbol</v>
       </c>
       <c r="R34" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="S34" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="T34" t="str">
-        <f ca="1"/>
         <v>```</v>
       </c>
     </row>
     <row r="35" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H35" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I35" t="str">
-        <f ca="1"/>
         <v>`short</v>
       </c>
       <c r="O35" t="str">
-        <f ca="1"/>
         <v>p</v>
       </c>
       <c r="P35">
-        <f ca="1"/>
         <v>12</v>
       </c>
       <c r="Q35" t="str">
-        <f ca="1"/>
         <v>timestamp</v>
       </c>
       <c r="R35">
-        <f ca="1"/>
         <v>-70226.008832708336</v>
       </c>
       <c r="S35">
-        <f ca="1"/>
         <v>43931.713476180557</v>
       </c>
       <c r="T35" t="str">
-        <f ca="1"/>
         <v>2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00</v>
       </c>
     </row>
     <row r="36" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H36" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I36">
-        <f ca="1"/>
         <v>-32768</v>
       </c>
       <c r="O36" t="str">
-        <f ca="1"/>
         <v>m</v>
       </c>
       <c r="P36">
-        <f ca="1"/>
         <v>13</v>
       </c>
       <c r="Q36" t="str">
-        <f ca="1"/>
         <v>month</v>
       </c>
       <c r="R36">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f ca="1"/>
         <v>43922</v>
       </c>
       <c r="T36" t="str">
-        <f ca="1"/>
         <v>2020.04 2020.04 2020.04m</v>
       </c>
     </row>
     <row r="37" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H37" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I37">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="O37" t="str">
-        <f ca="1"/>
         <v>d</v>
       </c>
       <c r="P37">
-        <f ca="1"/>
         <v>14</v>
       </c>
       <c r="Q37" t="str">
-        <f ca="1"/>
         <v>date</v>
       </c>
       <c r="R37">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f ca="1"/>
         <v>43931</v>
       </c>
       <c r="T37" t="str">
-        <f ca="1"/>
         <v>2020.04.10 2020.04.10 2020.04.10</v>
       </c>
     </row>
     <row r="38" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H38" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I38" t="str">
-        <f ca="1"/>
         <v>1 1 1h</v>
       </c>
       <c r="O38" t="str">
-        <f ca="1"/>
         <v>z</v>
       </c>
       <c r="P38">
-        <f ca="1"/>
         <v>15</v>
       </c>
       <c r="Q38" t="str">
-        <f ca="1"/>
         <v>datetime</v>
       </c>
       <c r="R38">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f ca="1"/>
         <v>43931.713476192126</v>
       </c>
       <c r="T38" t="str">
-        <f ca="1"/>
         <v>2020.04.10D17:07:24.343 2020.04.10D17:07:24.343 2020.04.10D17:07:24.343</v>
       </c>
     </row>
     <row r="39" spans="8:20" x14ac:dyDescent="0.25">
       <c r="O39" t="str">
-        <f ca="1"/>
         <v>n</v>
       </c>
       <c r="P39">
-        <f ca="1"/>
         <v>16</v>
       </c>
       <c r="Q39" t="str">
-        <f ca="1"/>
         <v>timespan</v>
       </c>
       <c r="R39">
-        <f ca="1"/>
         <v>-106751.99116730064</v>
       </c>
       <c r="S39">
-        <f ca="1"/>
         <v>0.71347618685185177</v>
       </c>
       <c r="T39" t="str">
-        <f ca="1"/>
         <v>17:07:24.3425440 17:07:24.3425440 17:07:24.3425440</v>
       </c>
     </row>
@@ -2793,159 +2418,124 @@
         <v>4</v>
       </c>
       <c r="O40" t="str">
-        <f ca="1"/>
         <v>u</v>
       </c>
       <c r="P40">
-        <f ca="1"/>
         <v>17</v>
       </c>
       <c r="Q40" t="str">
-        <f ca="1"/>
         <v>minute</v>
       </c>
       <c r="R40">
-        <f ca="1"/>
         <v>-1491308.0888888887</v>
       </c>
       <c r="S40">
-        <f ca="1"/>
         <v>0.71319444444444446</v>
       </c>
       <c r="T40" t="str">
-        <f ca="1"/>
         <v>17:07 17:07 17:07</v>
       </c>
     </row>
     <row r="41" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H41" t="str" cm="1">
-        <f t="array" aca="1" ref="H41:I46" ca="1">_xludf.execute($C$5,H40)</f>
+        <f t="array" ref="H41:I46">_xludf.execute($C$5,H40)</f>
         <v>c</v>
       </c>
       <c r="I41" t="str">
-        <f ca="1"/>
         <v>i</v>
       </c>
       <c r="O41" t="str">
-        <f ca="1"/>
         <v>v</v>
       </c>
       <c r="P41">
-        <f ca="1"/>
         <v>18</v>
       </c>
       <c r="Q41" t="str">
-        <f ca="1"/>
         <v>second</v>
       </c>
       <c r="R41">
-        <f ca="1"/>
         <v>-0.1348148148148148</v>
       </c>
       <c r="S41">
-        <f ca="1"/>
         <v>0.71347222222222217</v>
       </c>
       <c r="T41" t="str">
-        <f ca="1"/>
         <v>17:31:24 17:31:24 17:31:24</v>
       </c>
     </row>
     <row r="42" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H42" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I42">
-        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="O42" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="P42">
-        <f ca="1"/>
         <v>19</v>
       </c>
       <c r="Q42" t="str">
-        <f ca="1"/>
         <v>time</v>
       </c>
       <c r="R42">
-        <f ca="1"/>
         <v>-24.855134814814814</v>
       </c>
       <c r="S42">
-        <f ca="1"/>
         <v>0.71347618055555551</v>
       </c>
       <c r="T42" t="str">
-        <f ca="1"/>
         <v>17:07:24.342 17:07:24.342 17:07:24.342</v>
       </c>
     </row>
     <row r="43" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H43" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I43" t="str">
-        <f ca="1"/>
         <v>`int</v>
       </c>
       <c r="O43" t="str">
-        <f ca="1"/>
         <v>s</v>
       </c>
       <c r="P43">
-        <f ca="1"/>
         <v>20</v>
       </c>
       <c r="Q43" t="str">
-        <f ca="1"/>
         <v>symbol</v>
       </c>
       <c r="R43" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
       <c r="S43" t="str">
-        <f ca="1"/>
         <v>`abc</v>
       </c>
       <c r="T43" t="str">
-        <f ca="1"/>
         <v>`abc`abc`abc</v>
       </c>
     </row>
     <row r="44" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H44" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I44">
-        <f ca="1"/>
         <v>-2147483648</v>
       </c>
     </row>
     <row r="45" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H45" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I45">
-        <f ca="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H46" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I46" t="str">
-        <f ca="1"/>
         <v>1 1 1i</v>
       </c>
     </row>
@@ -2961,61 +2551,50 @@
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="str" cm="1">
-        <f t="array" aca="1" ref="H49:I54" ca="1">_xludf.execute($C$5,H48)</f>
+        <f t="array" ref="H49:I54">_xludf.execute($C$5,H48)</f>
         <v>c</v>
       </c>
       <c r="I49" t="str">
-        <f ca="1"/>
         <v>j</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I50">
-        <f ca="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I51" t="str">
-        <f ca="1"/>
         <v>`long</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I52">
-        <f ca="1"/>
         <v>-9.2233720368547758E+18</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I53">
-        <f ca="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I54" t="str">
-        <f ca="1"/>
         <v>1 1 1j</v>
       </c>
     </row>
@@ -3031,61 +2610,50 @@
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" t="str" cm="1">
-        <f t="array" aca="1" ref="H57:I62" ca="1">_xludf.execute($C$5,H56)</f>
+        <f t="array" ref="H57:I62">_xludf.execute($C$5,H56)</f>
         <v>c</v>
       </c>
-      <c r="I57" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I57" t="str">
+        <v>e</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I58">
-        <f ca="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I59" t="str">
-        <f ca="1"/>
         <v>`real</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I60" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I61">
-        <f ca="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I62" t="str">
-        <f ca="1"/>
         <v>1 1 1e</v>
       </c>
     </row>
@@ -3101,61 +2669,50 @@
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" t="str" cm="1">
-        <f t="array" aca="1" ref="H65:I70" ca="1">_xludf.execute($C$5,H64)</f>
+        <f t="array" ref="H65:I70">_xludf.execute($C$5,H64)</f>
         <v>c</v>
       </c>
-      <c r="I65" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I65" t="str">
+        <v>f</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I66">
-        <f ca="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I67" t="str">
-        <f ca="1"/>
         <v>`float</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I68" t="e">
-        <f ca="1"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I69">
-        <f ca="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I70" t="str">
-        <f ca="1"/>
         <v>1 1 1f</v>
       </c>
     </row>
@@ -3171,61 +2728,50 @@
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" t="str" cm="1">
-        <f t="array" aca="1" ref="H73:I78" ca="1">_xludf.execute($C$5,H72)</f>
+        <f t="array" ref="H73:I78">_xludf.execute($C$5,H72)</f>
         <v>c</v>
       </c>
-      <c r="I73" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I73" t="str">
+        <v>c</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I74">
-        <f ca="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I75" t="str">
-        <f ca="1"/>
         <v>`char</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
-      <c r="I76" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I76" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
-      <c r="I77" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I77" t="str">
+        <v>m</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I78" t="str">
-        <f ca="1"/>
         <v>"mmm"</v>
       </c>
     </row>
@@ -3241,61 +2787,50 @@
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" t="str" cm="1">
-        <f t="array" aca="1" ref="H81:I86" ca="1">_xludf.execute($C$5,H80)</f>
+        <f t="array" ref="H81:I86">_xludf.execute($C$5,H80)</f>
         <v>c</v>
       </c>
-      <c r="I81" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I81" t="str">
+        <v>s</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I82">
-        <f ca="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I83" t="str">
-        <f ca="1"/>
         <v>`symbol</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I84" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I85" t="str">
-        <f ca="1"/>
         <v>`</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I86" t="str">
-        <f ca="1"/>
         <v>```</v>
       </c>
     </row>
@@ -3311,61 +2846,50 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" t="str" cm="1">
-        <f t="array" aca="1" ref="H89:I94" ca="1">_xludf.execute($C$5,H88)</f>
+        <f t="array" ref="H89:I94">_xludf.execute($C$5,H88)</f>
         <v>c</v>
       </c>
-      <c r="I89" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I89" t="str">
+        <v>p</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I90">
-        <f ca="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I91" t="str">
-        <f ca="1"/>
         <v>`timestamp</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I92">
-        <f ca="1"/>
         <v>-70226.008832708336</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I93">
-        <f ca="1"/>
         <v>43931.713476180557</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I94" t="str">
-        <f ca="1"/>
         <v>2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00</v>
       </c>
     </row>
@@ -3381,61 +2905,50 @@
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" t="str" cm="1">
-        <f t="array" aca="1" ref="H97:I102" ca="1">_xludf.execute($C$5,H96)</f>
+        <f t="array" ref="H97:I102">_xludf.execute($C$5,H96)</f>
         <v>c</v>
       </c>
-      <c r="I97" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I97" t="str">
+        <v>m</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I98">
-        <f ca="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I99" t="str">
-        <f ca="1"/>
         <v>`month</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I100">
-        <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I101">
-        <f ca="1"/>
         <v>43922</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I102" t="str">
-        <f ca="1"/>
         <v>2020.04 2020.04 2020.04m</v>
       </c>
     </row>
@@ -3451,600 +2964,51 @@
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" t="str" cm="1">
-        <f t="array" aca="1" ref="H105:I110" ca="1">_xludf.execute($C$5,H104)</f>
+        <f t="array" ref="H105:I110">_xludf.execute($C$5,H104)</f>
         <v>c</v>
       </c>
-      <c r="I105" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I105" t="str">
+        <v>d</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" t="str">
-        <f ca="1"/>
         <v>t</v>
       </c>
       <c r="I106">
-        <f ca="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" t="str">
-        <f ca="1"/>
         <v>name</v>
       </c>
       <c r="I107" t="str">
-        <f ca="1"/>
         <v>`date</v>
       </c>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" t="str">
-        <f ca="1"/>
         <v>ndata</v>
       </c>
       <c r="I108">
-        <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" t="str">
-        <f ca="1"/>
         <v>data</v>
       </c>
       <c r="I109">
-        <f ca="1"/>
         <v>43931</v>
       </c>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" t="str">
-        <f ca="1"/>
         <v>ldata</v>
       </c>
       <c r="I110" t="str">
-        <f ca="1"/>
         <v>2020.04.10 2020.04.10 2020.04.10</v>
-      </c>
-    </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" t="str">
-        <f>"atoms "&amp;I112</f>
-        <v xml:space="preserve">atoms </v>
-      </c>
-    </row>
-    <row r="113" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H113" t="e" cm="1">
-        <f t="array" aca="1" ref="H113" ca="1">_xludf.execute($C$5,H112)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="120" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H120" t="str">
-        <f>"atoms "&amp;I120</f>
-        <v xml:space="preserve">atoms </v>
-      </c>
-    </row>
-    <row r="121" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H121" t="str" cm="1">
-        <f t="array" aca="1" ref="H121:M140" ca="1">_xludf.execute($C$5,H120)</f>
-        <v>c</v>
-      </c>
-      <c r="I121" t="str">
-        <f ca="1"/>
-        <v>t</v>
-      </c>
-      <c r="J121" t="str">
-        <f ca="1"/>
-        <v>name</v>
-      </c>
-      <c r="K121" t="str">
-        <f ca="1"/>
-        <v>ndata</v>
-      </c>
-      <c r="L121" t="str">
-        <f ca="1"/>
-        <v>data</v>
-      </c>
-      <c r="M121" t="str">
-        <f ca="1"/>
-        <v>ldata</v>
-      </c>
-    </row>
-    <row r="122" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H122" t="str">
-        <f ca="1"/>
-        <v>b</v>
-      </c>
-      <c r="I122">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J122" t="str">
-        <f ca="1"/>
-        <v>boolean</v>
-      </c>
-      <c r="K122" t="b">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L122" t="b">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M122" t="str">
-        <f ca="1"/>
-        <v>000b</v>
-      </c>
-    </row>
-    <row r="123" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H123" t="str">
-        <f ca="1"/>
-        <v>g</v>
-      </c>
-      <c r="I123">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="J123" t="str">
-        <f ca="1"/>
-        <v>guid</v>
-      </c>
-      <c r="K123" t="str">
-        <f ca="1"/>
-        <v>00000000-0000-0000-0000-000000000000</v>
-      </c>
-      <c r="L123" t="str">
-        <f ca="1"/>
-        <v>5ae7962d-49f2-404d-5aec-f7c8abbae288</v>
-      </c>
-      <c r="M123" t="str">
-        <f ca="1"/>
-        <v>(5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288;5ae7962d-49f2-404d-5aec-f7c8abbae288)</v>
-      </c>
-    </row>
-    <row r="124" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H124" t="str">
-        <f ca="1"/>
-        <v>x</v>
-      </c>
-      <c r="I124">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="J124" t="str">
-        <f ca="1"/>
-        <v>byte</v>
-      </c>
-      <c r="K124">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <f ca="1"/>
-        <v>90</v>
-      </c>
-      <c r="M124" t="str">
-        <f ca="1"/>
-        <v>90 90 90</v>
-      </c>
-    </row>
-    <row r="125" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H125" t="str">
-        <f ca="1"/>
-        <v>h</v>
-      </c>
-      <c r="I125">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="J125" t="str">
-        <f ca="1"/>
-        <v>short</v>
-      </c>
-      <c r="K125">
-        <f ca="1"/>
-        <v>-32768</v>
-      </c>
-      <c r="L125">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M125" t="str">
-        <f ca="1"/>
-        <v>1 1 1h</v>
-      </c>
-    </row>
-    <row r="126" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H126" t="str">
-        <f ca="1"/>
-        <v>i</v>
-      </c>
-      <c r="I126">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="J126" t="str">
-        <f ca="1"/>
-        <v>int</v>
-      </c>
-      <c r="K126">
-        <f ca="1"/>
-        <v>-2147483648</v>
-      </c>
-      <c r="L126">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M126" t="str">
-        <f ca="1"/>
-        <v>1 1 1i</v>
-      </c>
-    </row>
-    <row r="127" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H127" t="str">
-        <f ca="1"/>
-        <v>j</v>
-      </c>
-      <c r="I127">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="J127" t="str">
-        <f ca="1"/>
-        <v>long</v>
-      </c>
-      <c r="K127">
-        <f ca="1"/>
-        <v>-9.2233720368547758E+18</v>
-      </c>
-      <c r="L127">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M127" t="str">
-        <f ca="1"/>
-        <v>1 1 1j</v>
-      </c>
-    </row>
-    <row r="128" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H128" t="str">
-        <f ca="1"/>
-        <v>e</v>
-      </c>
-      <c r="I128">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="J128" t="str">
-        <f ca="1"/>
-        <v>real</v>
-      </c>
-      <c r="K128" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L128">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M128" t="str">
-        <f ca="1"/>
-        <v>1 1 1e</v>
-      </c>
-    </row>
-    <row r="129" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H129" t="str">
-        <f ca="1"/>
-        <v>f</v>
-      </c>
-      <c r="I129">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="J129" t="str">
-        <f ca="1"/>
-        <v>float</v>
-      </c>
-      <c r="K129" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L129">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M129" t="str">
-        <f ca="1"/>
-        <v>1 1 1f</v>
-      </c>
-    </row>
-    <row r="130" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H130" t="str">
-        <f ca="1"/>
-        <v>c</v>
-      </c>
-      <c r="I130">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="J130" t="str">
-        <f ca="1"/>
-        <v>char</v>
-      </c>
-      <c r="K130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M130" t="str">
-        <f ca="1"/>
-        <v>"mmm"</v>
-      </c>
-    </row>
-    <row r="131" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H131" t="str">
-        <f ca="1"/>
-        <v>s</v>
-      </c>
-      <c r="I131">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="J131" t="str">
-        <f ca="1"/>
-        <v>symbol</v>
-      </c>
-      <c r="K131" t="str">
-        <f ca="1"/>
-        <v>`</v>
-      </c>
-      <c r="L131" t="str">
-        <f ca="1"/>
-        <v>`</v>
-      </c>
-      <c r="M131" t="str">
-        <f ca="1"/>
-        <v>```</v>
-      </c>
-    </row>
-    <row r="132" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H132" t="str">
-        <f ca="1"/>
-        <v>p</v>
-      </c>
-      <c r="I132">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="J132" t="str">
-        <f ca="1"/>
-        <v>timestamp</v>
-      </c>
-      <c r="K132">
-        <f ca="1"/>
-        <v>-70226.008832708336</v>
-      </c>
-      <c r="L132">
-        <f ca="1"/>
-        <v>43931.713476180557</v>
-      </c>
-      <c r="M132" t="str">
-        <f ca="1"/>
-        <v>2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00 2020.04.10D17:07:24.3425+02:00</v>
-      </c>
-    </row>
-    <row r="133" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H133" t="str">
-        <f ca="1"/>
-        <v>m</v>
-      </c>
-      <c r="I133">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="J133" t="str">
-        <f ca="1"/>
-        <v>month</v>
-      </c>
-      <c r="K133">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <f ca="1"/>
-        <v>43922</v>
-      </c>
-      <c r="M133" t="str">
-        <f ca="1"/>
-        <v>2020.04 2020.04 2020.04m</v>
-      </c>
-    </row>
-    <row r="134" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H134" t="str">
-        <f ca="1"/>
-        <v>d</v>
-      </c>
-      <c r="I134">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="J134" t="str">
-        <f ca="1"/>
-        <v>date</v>
-      </c>
-      <c r="K134">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <f ca="1"/>
-        <v>43931</v>
-      </c>
-      <c r="M134" t="str">
-        <f ca="1"/>
-        <v>2020.04.10 2020.04.10 2020.04.10</v>
-      </c>
-    </row>
-    <row r="135" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H135" t="str">
-        <f ca="1"/>
-        <v>z</v>
-      </c>
-      <c r="I135">
-        <f ca="1"/>
-        <v>15</v>
-      </c>
-      <c r="J135" t="str">
-        <f ca="1"/>
-        <v>datetime</v>
-      </c>
-      <c r="K135">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <f ca="1"/>
-        <v>43931.713476192126</v>
-      </c>
-      <c r="M135" t="str">
-        <f ca="1"/>
-        <v>2020.04.10D17:07:24.343 2020.04.10D17:07:24.343 2020.04.10D17:07:24.343</v>
-      </c>
-    </row>
-    <row r="136" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H136" t="str">
-        <f ca="1"/>
-        <v>n</v>
-      </c>
-      <c r="I136">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="J136" t="str">
-        <f ca="1"/>
-        <v>timespan</v>
-      </c>
-      <c r="K136" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L136" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M136" t="str">
-        <f ca="1"/>
-        <v>17:07:24.3425440 17:07:24.3425440 17:07:24.3425440</v>
-      </c>
-    </row>
-    <row r="137" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H137" t="str">
-        <f ca="1"/>
-        <v>u</v>
-      </c>
-      <c r="I137">
-        <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="J137" t="str">
-        <f ca="1"/>
-        <v>minute</v>
-      </c>
-      <c r="K137" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L137" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M137" t="str">
-        <f ca="1"/>
-        <v>17:07 17:07 17:07</v>
-      </c>
-    </row>
-    <row r="138" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H138" t="str">
-        <f ca="1"/>
-        <v>v</v>
-      </c>
-      <c r="I138">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="J138" t="str">
-        <f ca="1"/>
-        <v>second</v>
-      </c>
-      <c r="K138" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L138" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M138" t="str">
-        <f ca="1"/>
-        <v>17:31:24 17:31:24 17:31:24</v>
-      </c>
-    </row>
-    <row r="139" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H139" t="str">
-        <f ca="1"/>
-        <v>t</v>
-      </c>
-      <c r="I139">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="J139" t="str">
-        <f ca="1"/>
-        <v>time</v>
-      </c>
-      <c r="K139" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L139" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M139" t="str">
-        <f ca="1"/>
-        <v>17:07:24.342 17:07:24.342 17:07:24.342</v>
-      </c>
-    </row>
-    <row r="140" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H140" t="str">
-        <f ca="1"/>
-        <v>s</v>
-      </c>
-      <c r="I140">
-        <f ca="1"/>
-        <v>20</v>
-      </c>
-      <c r="J140" t="str">
-        <f ca="1"/>
-        <v>symbol</v>
-      </c>
-      <c r="K140" t="str">
-        <f ca="1"/>
-        <v>`</v>
-      </c>
-      <c r="L140" t="str">
-        <f ca="1"/>
-        <v>`abc</v>
-      </c>
-      <c r="M140" t="str">
-        <f ca="1"/>
-        <v>`abc`abc`abc</v>
       </c>
     </row>
   </sheetData>
@@ -4055,13 +3019,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C6A98-C852-4A5F-9AF3-F65411A707ED}">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -4071,20 +3039,17 @@
         <v>17</v>
       </c>
       <c r="E2" t="e">
-        <f t="array" aca="1" ref="E2:H4" ca="1">_xll.subscribe(C5,"abc","abc")</f>
-        <v>#N/A</v>
+        <f t="array" ref="E2:H4">_xll.subscribe(C5,"abc","abc")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -4095,20 +3060,16 @@
         <v>5</v>
       </c>
       <c r="E3" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F3" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G3" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H3" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -4119,29 +3080,46 @@
         <v>8866</v>
       </c>
       <c r="E4" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F4" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H4" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">_xll.open_subscriber(C2,C3,C4)</f>
-        <v>tmp1</v>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8:D8">_xll.startTimer(C9,C10)</f>
+        <v>S: 15:07:23.505</v>
+      </c>
+      <c r="D8" t="str">
+        <v>G: 15:07:27.521</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fsharp\qxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C59F76-4F80-45CB-B823-C5D9D67A9ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D35A16-46AE-4550-B0DA-AED74E72CF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43320" yWindow="2565" windowWidth="17235" windowHeight="9945" xr2:uid="{B48BFF41-2E53-4A53-96B5-A5B510972956}"/>
+    <workbookView xWindow="7980" yWindow="5415" windowWidth="23610" windowHeight="12645" xr2:uid="{925F285A-02D9-4967-A7DB-B6894CF61D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +55,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>uid</t>
+  </si>
   <si>
     <t>host</t>
   </si>
@@ -64,43 +66,35 @@
     <t>port</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uid</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>tmp</t>
   </si>
   <si>
     <t>localhost</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>qtmp1</t>
-  </si>
-  <si>
-    <t>timer</t>
-  </si>
-  <si>
-    <t>.z.t</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>kimura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,17 +117,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,29 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="rtdsrv.2d17de59e41d46cf8b3554d64aa5f8b3">
-      <tp t="s">
-        <v>11:55:13</v>
-        <stp/>
-        <stp/>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.6a9cec042c984b0587e27d678c726f14">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f5f214b2-b39c-4408-a37e-9b49a6029f3c</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,101 +435,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16530EAE-2559-4087-9788-AEA27ECFA545}">
-  <dimension ref="B2:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531870C5-C8CB-45D0-A7B9-072551DB5602}">
+  <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>8866</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">_xll.dna_aopen_connection(C2,C3,C4)</f>
-        <v>qtmp1</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8888</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">_xll.dna_rtd("rtdclock.rtdclockserver","")</f>
-        <v>11:55:13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" cm="1">
-        <f t="array" ref="C9">_xll.dna_execute(C7,C5,B9)</f>
-        <v>0.41335481481481479</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">_xll.dna_open_connection(C3,C4,C5,C6,C7)</f>
+        <v>tmp</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fsharp\qxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D35A16-46AE-4550-B0DA-AED74E72CF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C63CE5-5E18-49D7-865E-972C5F72758D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="5415" windowWidth="23610" windowHeight="12645" xr2:uid="{925F285A-02D9-4967-A7DB-B6894CF61D1D}"/>
+    <workbookView xWindow="-25740" yWindow="1650" windowWidth="23610" windowHeight="12645" xr2:uid="{925F285A-02D9-4967-A7DB-B6894CF61D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>uid</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>kimura</t>
+  </si>
+  <si>
+    <t>flip([]a:1 2 3;b: 4 5 6)</t>
+  </si>
+  <si>
+    <t>`a`b!(1 2; 3 4 5)</t>
+  </si>
+  <si>
+    <t>2!([]a:1 2 3;b: 4 5 6;c:5 6 7)</t>
   </si>
 </sst>
 </file>
@@ -436,39 +445,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531870C5-C8CB-45D0-A7B9-072551DB5602}">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:K5">_xll.dna_execute($C$10,$C$8,H3)</f>
+        <v>a</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4:P5">_xll.dna_execute($C$10,$C$8,M3)</f>
+        <v>a</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8866</v>
+      </c>
+      <c r="H5" t="str">
+        <v>b</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="str">
+        <v>b</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -476,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -484,13 +549,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8">_xll.dna_open_connection(C3,C4,C5,C6,C7)</f>
         <v>tmp</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E11" t="e" cm="1">
+        <f t="array" ref="E11">_xll.dna_execute($C$10,$C$8,E10)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fsharp\qxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C63CE5-5E18-49D7-865E-972C5F72758D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED889361-EB3B-48A7-AA0F-783F6AE96A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25740" yWindow="1650" windowWidth="23610" windowHeight="12645" xr2:uid="{925F285A-02D9-4967-A7DB-B6894CF61D1D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +94,7 @@
     <t>`a`b!(1 2; 3 4 5)</t>
   </si>
   <si>
-    <t>2!([]a:1 2 3;b: 4 5 6;c:5 6 7)</t>
+    <t>1!([]a:1 2 3;b: 4 5 6;c:5 6 7)</t>
   </si>
 </sst>
 </file>
@@ -445,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531870C5-C8CB-45D0-A7B9-072551DB5602}">
-  <dimension ref="B3:P11"/>
+  <dimension ref="B3:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +565,48 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="e" cm="1">
-        <f t="array" ref="E11">_xll.dna_execute($C$10,$C$8,E10)</f>
-        <v>#VALUE!</v>
+      <c r="E11" t="str" cm="1">
+        <f t="array" ref="E11:G14">_xll.dna_execute($C$10,$C$8,E10)</f>
+        <v>a</v>
+      </c>
+      <c r="F11" t="str">
+        <v>b</v>
+      </c>
+      <c r="G11" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fsharp\qxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED889361-EB3B-48A7-AA0F-783F6AE96A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFAEDB-3115-4CBC-BE05-FA1BEC9EA883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25740" yWindow="1650" windowWidth="23610" windowHeight="12645" xr2:uid="{925F285A-02D9-4967-A7DB-B6894CF61D1D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>uid</t>
   </si>
@@ -88,13 +87,7 @@
     <t>kimura</t>
   </si>
   <si>
-    <t>flip([]a:1 2 3;b: 4 5 6)</t>
-  </si>
-  <si>
-    <t>`a`b!(1 2; 3 4 5)</t>
-  </si>
-  <si>
-    <t>1!([]a:1 2 3;b: 4 5 6;c:5 6 7)</t>
+    <t>.sys 1</t>
   </si>
 </sst>
 </file>
@@ -446,111 +439,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531870C5-C8CB-45D0-A7B9-072551DB5602}">
-  <dimension ref="B3:P14"/>
+  <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4:K5">_xll.dna_execute($C$10,$C$8,H3)</f>
-        <v>a</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4:P5">_xll.dna_execute($C$10,$C$8,M3)</f>
-        <v>a</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:K26">_xll.dna_execute($C$10,$C$8,E3)</f>
+        <v>folder</v>
+      </c>
+      <c r="F4" t="str">
+        <v>plant</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8866</v>
+        <v>22002</v>
+      </c>
+      <c r="E5" t="str">
+        <v>env</v>
+      </c>
+      <c r="F5" t="str">
+        <v>deepData</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>b</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="M5" t="str">
-        <v>b</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <v>subsys</v>
+      </c>
+      <c r="F6" t="str">
+        <v>mxnet</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <v>process</v>
+      </c>
+      <c r="F7" t="str">
+        <v>cdb</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -558,55 +586,440 @@
         <f t="array" ref="C8">_xll.dna_open_connection(C3,C4,C5,C6,C7)</f>
         <v>tmp</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11:G14">_xll.dna_execute($C$10,$C$8,E10)</f>
-        <v>a</v>
+      <c r="E8" t="str">
+        <v>library</v>
+      </c>
+      <c r="F8" t="str">
+        <v>randomSeed</v>
+      </c>
+      <c r="G8" t="str">
+        <v>setPort</v>
+      </c>
+      <c r="H8" t="str">
+        <v>hopen</v>
+      </c>
+      <c r="I8" t="str">
+        <v>bus.client</v>
+      </c>
+      <c r="J8" t="str">
+        <v>tick.cdb</v>
+      </c>
+      <c r="K8" t="str">
+        <v>heartbeat.client</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>arg</v>
+      </c>
+      <c r="F9" t="str">
+        <v>enlist `setPort!enlist "%basePort% + 5"</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>global</v>
+      </c>
+      <c r="F10" t="str">
+        <v>`audit`data`host`instance`basePort!("audit";"data";"localhost";1;25000)</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>local</v>
       </c>
       <c r="F11" t="str">
-        <v>b</v>
+        <v>`$()!()</v>
       </c>
       <c r="G11" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E12">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <v>instance</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>2</v>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>id</v>
       </c>
       <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <v>mergeArg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>`audit`basePort`data`host`instance`setPort!("audit";25000;"data";"localhost";1;"%basePort% + 5")</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <v>host</v>
+      </c>
+      <c r="F15" t="str">
+        <v>localhost</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <v>port</v>
+      </c>
+      <c r="F16">
+        <v>25005</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <v>proc</v>
+      </c>
+      <c r="F17" t="str">
+        <v>cdb.0</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <v>uid</v>
+      </c>
+      <c r="F18" t="str">
+        <v>plant.deepData.mxnet.cdb.0</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <v>hdb</v>
+      </c>
+      <c r="F19" t="str">
+        <v>data/plant/deepData/mxnet/hdb</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <v>audit</v>
+      </c>
+      <c r="F20" t="str">
+        <v>audit/plant/deepData/mxnet/cdb/0</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <v>gData</v>
+      </c>
+      <c r="F21" t="str">
+        <v>data/plant/deepData/mxnet/cdb</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <v>data</v>
+      </c>
+      <c r="F22" t="str">
+        <v>data/plant/deepData/mxnet/cdb/0</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <v>gfile</v>
+      </c>
+      <c r="F23" t="str">
+        <v>plant/deepData/mxnet/cdb/global</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <v>lfile</v>
+      </c>
+      <c r="F24" t="str">
+        <v>plant/deepData/mxnet/cdb/0</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <v>gcorefile</v>
+      </c>
+      <c r="F25" t="str">
+        <v>C:\q\btick\core\core\mxnet\cdb\global</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <v>lcorefile</v>
+      </c>
+      <c r="F26" t="str">
+        <v>C:\q\btick\core\core\mxnet\cdb\0</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
